--- a/Attendance/AttendanceSheet.xlsx
+++ b/Attendance/AttendanceSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renke\Desktop\prj3-2020-traffic-control-international-prj3-2020-group-08\Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renke\Desktop\prj305\Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B7CF32-99B3-4826-AC51-03CFAE36FC60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B500D7-C9B1-46C6-9894-64E358022654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
   <si>
     <t>Meeting</t>
   </si>
@@ -531,7 +531,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,11 +617,24 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>

--- a/Attendance/AttendanceSheet.xlsx
+++ b/Attendance/AttendanceSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renke\Desktop\prj305\Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoSpace\Desktop\PRJ305\Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B500D7-C9B1-46C6-9894-64E358022654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82D8E7A-9EFA-4547-8F81-EFBF248F463E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>Meeting</t>
   </si>
@@ -57,6 +56,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>01.12.2020 Review</t>
   </si>
 </sst>
 </file>
@@ -531,7 +533,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,11 +639,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>

--- a/Attendance/AttendanceSheet.xlsx
+++ b/Attendance/AttendanceSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoSpace\Desktop\PRJ305\Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renke\Desktop\prj305\Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82D8E7A-9EFA-4547-8F81-EFBF248F463E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CD91D0-C118-4989-BBCA-991A4C64DD4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
   <si>
     <t>Meeting</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>01.12.2020 Review</t>
+  </si>
+  <si>
+    <t>01.12.2020 Review / Planning</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,11 +660,24 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>

--- a/Attendance/AttendanceSheet.xlsx
+++ b/Attendance/AttendanceSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renke\Desktop\prj305\Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj3-2020-traffic-control-international-prj3-2020-group-05\Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CD91D0-C118-4989-BBCA-991A4C64DD4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FBBEBF-61C4-477F-BDAE-5593D05EDE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1524E459-378F-4099-ADE4-6AAFAC933C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>Meeting</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>01.12.2020 Review / Planning</t>
+  </si>
+  <si>
+    <t>15/12/2020 Review</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -237,7 +240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -536,10 +539,13 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -680,11 +686,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -966,7 +983,7 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -981,7 +998,7 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
